--- a/results/03-17 results 1/simpleStringResults.xlsx
+++ b/results/03-17 results 1/simpleStringResults.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="simpleStringResults" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -617,14 +617,14 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Request Service Bandwidth</a:t>
+              <a:t>Bandwidth: requests per second</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -650,9 +650,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -918,11 +918,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="399933504"/>
-        <c:axId val="399931936"/>
+        <c:axId val="357356696"/>
+        <c:axId val="357358264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="399933504"/>
+        <c:axId val="357356696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -942,20 +942,15 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Concurrency</a:t>
+                  <a:t>Concurrency  (maximum simultaneous requests)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t>  (maximum simultaneous requests)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -980,9 +975,9 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -1018,15 +1013,15 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399931936"/>
+        <c:crossAx val="357358264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1034,7 +1029,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="399931936"/>
+        <c:axId val="357358264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1068,20 +1063,15 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Requests</a:t>
+                  <a:t>Requests per second</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> per second</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1106,9 +1096,9 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -1138,15 +1128,15 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399933504"/>
+        <c:crossAx val="357356696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1181,9 +1171,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -1214,7 +1204,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1255,20 +1248,15 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Mean time</a:t>
+              <a:t>Mean time per request across all concurrent requests</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> per request across all concurrent requests</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1293,9 +1281,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -1561,11 +1549,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="399940168"/>
-        <c:axId val="399940560"/>
+        <c:axId val="357357088"/>
+        <c:axId val="357355912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="399940168"/>
+        <c:axId val="357357088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1585,20 +1573,15 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Concurrency</a:t>
+                  <a:t>Concurrency (maximum simultaneous requests)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (maximum simultaneous requests)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1623,9 +1606,9 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -1661,15 +1644,15 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399940560"/>
+        <c:crossAx val="357355912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1677,7 +1660,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="399940560"/>
+        <c:axId val="357355912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1711,9 +1694,9 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -1744,9 +1727,9 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -1776,15 +1759,15 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399940168"/>
+        <c:crossAx val="357357088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1819,9 +1802,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -1852,7 +1835,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1893,20 +1879,15 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Bandwidth and concurrent</a:t>
+              <a:t>Bandwidth and concurrent means</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> means</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1931,9 +1912,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -2077,8 +2058,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="399933896"/>
-        <c:axId val="399938600"/>
+        <c:axId val="357358656"/>
+        <c:axId val="357361008"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2169,11 +2150,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="399932720"/>
-        <c:axId val="399922920"/>
+        <c:axId val="357350848"/>
+        <c:axId val="357353200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="399933896"/>
+        <c:axId val="357358656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2193,20 +2174,15 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Concurrency (maximum simultaneous</a:t>
+                  <a:t>Concurrency (maximum simultaneous requests)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> requests)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2231,9 +2207,9 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -2269,22 +2245,23 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399938600"/>
+        <c:crossAx val="357361008"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="399938600"/>
+        <c:axId val="357361008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2318,9 +2295,9 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -2351,9 +2328,9 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -2383,19 +2360,20 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399933896"/>
+        <c:crossAx val="357358656"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="399922920"/>
+        <c:axId val="357353200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2415,9 +2393,9 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -2448,9 +2426,9 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -2480,20 +2458,20 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399932720"/>
+        <c:crossAx val="357350848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="399932720"/>
+        <c:axId val="357350848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2503,7 +2481,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="399922920"/>
+        <c:crossAx val="357353200"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2540,9 +2519,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -2573,7 +2552,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2614,18 +2596,18 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Mean</a:t>
+              <a:t>Mean versus longest: logarithmic</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> versus longest request service</a:t>
+              <a:t> y-axis</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2652,9 +2634,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -3172,11 +3154,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="411495424"/>
-        <c:axId val="411502088"/>
+        <c:axId val="357352808"/>
+        <c:axId val="357347712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="411495424"/>
+        <c:axId val="357352808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3196,20 +3178,15 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Concurrency</a:t>
+                  <a:t>Concurrency (maximum simultaneous requests)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (maximum simultaneous requests)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3234,9 +3211,9 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -3272,15 +3249,15 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411502088"/>
+        <c:crossAx val="357347712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3288,8 +3265,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="411502088"/>
+        <c:axId val="357347712"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3322,9 +3300,9 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -3355,9 +3333,9 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -3387,15 +3365,15 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411495424"/>
+        <c:crossAx val="357352808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3430,9 +3408,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -3463,7 +3441,893 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mean versus longest</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>simpleStringResults!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node Mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>simpleStringResults!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>simpleStringResults!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>8.5988000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.660399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.684799999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.824199999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>119.38879999999899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>238.79759999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>513.25839999999903</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1110.7018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2053.0335999999902</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4044.7251999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9011.4941999999992</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17962.924800000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36178.8842</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>simpleStringResults!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node Longest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>simpleStringResults!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>simpleStringResults!$E$2:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>46.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>140.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>196.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>337.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>832.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1550.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3344.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4667.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12717.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20155.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36931.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>simpleStringResults!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PHP Mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>simpleStringResults!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>simpleStringResults!$H$2:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.354399999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.937199999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>111.5214</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>224.1412</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>465.89420000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1118.9287999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7297.4380000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14872.1924</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29822.34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59980.781999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>123636.9598</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>simpleStringResults!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PHP Longest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>simpleStringResults!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>simpleStringResults!$I$2:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>767.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>171.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>305.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>636.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5834.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9693.7999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17887</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32856.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63133.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>124506.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="360392088"/>
+        <c:axId val="360392480"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="360392088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Concurrency (maximum simultaneous requests)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="360392480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="360392480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="360392088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -3636,6 +4500,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5159,6 +6063,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5775,9 +7195,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>790574</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5791,6 +7211,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>252414</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6064,8 +7516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
